--- a/mysite/express_site/static/寄件信息模板.xlsx
+++ b/mysite/express_site/static/寄件信息模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">寄件人姓名</t>
   </si>
@@ -40,16 +40,40 @@
     <t xml:space="preserve">收件人电话</t>
   </si>
   <si>
+    <t xml:space="preserve">收件人地区</t>
+  </si>
+  <si>
     <t xml:space="preserve">收件人地址</t>
   </si>
   <si>
-    <t xml:space="preserve">收件人地区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文件/包裹</t>
+    <t xml:space="preserve">物品类型</t>
   </si>
   <si>
     <t xml:space="preserve">是否保价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安徽省合肥市蜀山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大屯东路南环小区1栋703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵林梅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南省长沙市隋华区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长江饭店三楼3001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
   </si>
 </sst>
 </file>
@@ -160,22 +184,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3917525773196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3917525773196"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5103092783505"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.18556701030928"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3298969072165"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0309278350515"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5412371134021"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.7113402061856"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.04639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,6 +234,38 @@
       </c>
       <c r="J1" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>13432455362</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12332122212</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
